--- a/HTML CSS/Program-Aug-2016.xlsx
+++ b/HTML CSS/Program-Aug-2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="315"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="23040" windowHeight="9090" tabRatio="315"/>
   </bookViews>
   <sheets>
     <sheet name="HTML &amp; CSS Course Program" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Lecture</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>18:30-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -286,7 +289,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -296,7 +299,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -746,22 +749,22 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -787,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -811,10 +814,10 @@
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -841,7 +844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -869,7 +872,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -898,7 +901,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -927,7 +930,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -956,7 +959,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -985,7 +988,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
